--- a/doc/checklist/CheckList.xlsx
+++ b/doc/checklist/CheckList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="236" yWindow="105" windowWidth="14806" windowHeight="8012"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
   <si>
     <t>Percent complete</t>
   </si>
@@ -105,19 +105,22 @@
     <t xml:space="preserve">Use case diagram </t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>not yet</t>
-  </si>
-  <si>
     <t>Design partern</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Võ Đăng Phước</t>
+  </si>
+  <si>
+    <t>Suggest function to code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,11 +243,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,37 +254,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -296,6 +302,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -344,7 +353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,55 +597,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:W54"/>
+  <dimension ref="A4:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47:R47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18:R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="2" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
       <c r="S4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
@@ -658,20 +667,20 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="15">
+      <c r="S5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="5">
         <v>1</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
@@ -689,16 +698,16 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="3"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
@@ -720,20 +729,20 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="15">
+      <c r="S7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="5">
         <v>1</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
@@ -755,20 +764,20 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="15">
+      <c r="S8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="5">
         <v>1</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
@@ -790,20 +799,20 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="15">
-        <v>0</v>
+      <c r="T9" s="5">
+        <v>1</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
@@ -813,24 +822,32 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="4"/>
+      <c r="S10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="5">
+        <v>0.8</v>
+      </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="12"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
@@ -848,17 +865,17 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="3"/>
+      <c r="S11" s="2"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="14" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="9" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="4"/>
@@ -867,7 +884,9 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -875,16 +894,16 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="3"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="13"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -900,16 +919,16 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="3"/>
+      <c r="S13" s="2"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -925,17 +944,17 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="3"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4"/>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="9"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -956,12 +975,10 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -977,16 +994,18 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="3"/>
+      <c r="S16" s="2"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1002,16 +1021,16 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="3"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1027,16 +1046,16 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="3"/>
+      <c r="S18" s="2"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1052,16 +1071,16 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="3"/>
+      <c r="S19" s="2"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1077,16 +1096,16 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="3"/>
+      <c r="S20" s="2"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1102,16 +1121,16 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="3"/>
+      <c r="S21" s="2"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1127,16 +1146,16 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="3"/>
+      <c r="S22" s="2"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1152,16 +1171,16 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="3"/>
+      <c r="S23" s="2"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1177,16 +1196,16 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="3"/>
+      <c r="S24" s="2"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1202,16 +1221,16 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="3"/>
+      <c r="S25" s="2"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1227,16 +1246,16 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3"/>
+      <c r="S26" s="2"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1252,15 +1271,15 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="3"/>
+      <c r="S27" s="2"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="12"/>
+      <c r="B28" s="7"/>
       <c r="C28" s="13"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1277,18 +1296,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3"/>
+      <c r="S28" s="2"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1304,14 +1321,16 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3"/>
+      <c r="S29" s="2"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
       <c r="D30" s="4"/>
@@ -1329,53 +1348,43 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3"/>
+      <c r="S30" s="2"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T31" s="15">
-        <v>1</v>
-      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1389,28 +1398,28 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T32" s="15">
+      <c r="S32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" s="5">
         <v>1</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1424,51 +1433,61 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T33" s="15">
+      <c r="S33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T33" s="5">
         <v>1</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4"/>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="N34" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="4"/>
+      <c r="S34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T34" s="5">
+        <v>1</v>
+      </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1484,16 +1503,16 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="3"/>
+      <c r="S35" s="2"/>
       <c r="T35" s="4"/>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1509,16 +1528,16 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="3"/>
+      <c r="S36" s="2"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1534,16 +1553,16 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="3"/>
+      <c r="S37" s="2"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1559,16 +1578,16 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="3"/>
+      <c r="S38" s="2"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1584,16 +1603,16 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="3"/>
+      <c r="S39" s="2"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1609,16 +1628,16 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="3"/>
+      <c r="S40" s="2"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1634,55 +1653,45 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="3"/>
+      <c r="S41" s="2"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="4" t="s">
-        <v>19</v>
-      </c>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T42" s="15">
-        <v>1</v>
-      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1702,22 +1711,22 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T43" s="15">
+      <c r="S43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T43" s="5">
         <v>1</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1737,45 +1746,55 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T44" s="15">
+      <c r="S44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T44" s="5">
         <v>1</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="4"/>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="K45" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="N45" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="4"/>
+      <c r="S45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T45" s="5">
+        <v>1</v>
+      </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -1791,16 +1810,16 @@
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="3"/>
+      <c r="S46" s="2"/>
       <c r="T46" s="4"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -1816,16 +1835,16 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="3"/>
+      <c r="S47" s="2"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1841,15 +1860,16 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
+      <c r="S48" s="2"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1870,10 +1890,10 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -1894,10 +1914,10 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1918,10 +1938,10 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="7"/>
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1942,10 +1962,10 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1966,10 +1986,10 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -1980,201 +2000,42 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="T50:W50"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="N51:R51"/>
-    <mergeCell ref="N52:R52"/>
-    <mergeCell ref="N53:R53"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N47:R47"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="A42:C54"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
+  <mergeCells count="210">
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
     <mergeCell ref="D15:J15"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
     <mergeCell ref="K15:M15"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A4:C15"/>
-    <mergeCell ref="A16:C28"/>
-    <mergeCell ref="A29:C41"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="N15:R15"/>
     <mergeCell ref="T15:W15"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="N30:R30"/>
-    <mergeCell ref="N31:R31"/>
-    <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N24:R24"/>
-    <mergeCell ref="N25:R25"/>
-    <mergeCell ref="N26:R26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="N28:R28"/>
-    <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="N19:R19"/>
-    <mergeCell ref="N20:R20"/>
-    <mergeCell ref="N21:R21"/>
-    <mergeCell ref="N22:R22"/>
-    <mergeCell ref="N23:R23"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D41:J41"/>
     <mergeCell ref="T4:W4"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="T5:W5"/>
@@ -2184,13 +2045,201 @@
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="N31:R31"/>
+    <mergeCell ref="N32:R32"/>
+    <mergeCell ref="N25:R25"/>
+    <mergeCell ref="N26:R26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="N28:R28"/>
+    <mergeCell ref="N29:R29"/>
+    <mergeCell ref="N30:R30"/>
+    <mergeCell ref="N19:R19"/>
+    <mergeCell ref="N20:R20"/>
+    <mergeCell ref="N21:R21"/>
+    <mergeCell ref="N22:R22"/>
+    <mergeCell ref="N23:R23"/>
+    <mergeCell ref="N24:R24"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A4:C16"/>
+    <mergeCell ref="A17:C29"/>
+    <mergeCell ref="A30:C42"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="A43:C55"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="N53:R53"/>
+    <mergeCell ref="N54:R54"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N51:R51"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2200,7 +2249,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2212,7 +2261,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/checklist/CheckList.xlsx
+++ b/doc/checklist/CheckList.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="236" yWindow="105" windowWidth="14806" windowHeight="8012"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Percent complete</t>
   </si>
@@ -105,19 +105,40 @@
     <t xml:space="preserve">Use case diagram </t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>not yet</t>
-  </si>
-  <si>
     <t>Design partern</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Võ Đăng Phước</t>
+  </si>
+  <si>
+    <t>Suggest function to code</t>
+  </si>
+  <si>
+    <t>Require</t>
+  </si>
+  <si>
+    <t>Trần Hữu Phát</t>
+  </si>
+  <si>
+    <t>UI require / Other require</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>Demo code</t>
+  </si>
+  <si>
+    <t>Code Java  and XML in Android Studio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,11 +261,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -254,14 +272,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,6 +291,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -281,12 +311,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,6 +320,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -344,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,7 +406,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -588,55 +615,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:W54"/>
+  <dimension ref="A4:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N47" sqref="N47:R47"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T46" sqref="T46:W46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
@@ -658,20 +685,20 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T5" s="15">
+      <c r="S5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="7">
         <v>1</v>
       </c>
       <c r="U5" s="4"/>
       <c r="V5" s="4"/>
       <c r="W5" s="4"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
@@ -689,16 +716,16 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="3"/>
+      <c r="S6" s="2"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
       <c r="W6" s="4"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="4" t="s">
         <v>10</v>
       </c>
@@ -720,20 +747,20 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T7" s="15">
+      <c r="S7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="7">
         <v>1</v>
       </c>
       <c r="U7" s="4"/>
       <c r="V7" s="4"/>
       <c r="W7" s="4"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
       <c r="D8" s="4" t="s">
         <v>11</v>
       </c>
@@ -755,20 +782,20 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="15">
+      <c r="S8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="7">
         <v>1</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="4" t="s">
         <v>12</v>
       </c>
@@ -790,20 +817,20 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="3" t="s">
+      <c r="S9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="15">
-        <v>0</v>
+      <c r="T9" s="7">
+        <v>1</v>
       </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
       <c r="D10" s="4" t="s">
         <v>13</v>
       </c>
@@ -813,24 +840,32 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
+      <c r="N10" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="4"/>
+      <c r="S10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="7">
+        <v>0.8</v>
+      </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="4" t="s">
         <v>14</v>
       </c>
@@ -848,17 +883,17 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="3"/>
+      <c r="S11" s="2"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="14" t="s">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="4"/>
@@ -867,7 +902,9 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="K12" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
@@ -875,41 +912,51 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="3"/>
+      <c r="S12" s="2"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="4"/>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="4"/>
+      <c r="S13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="7">
+        <v>1</v>
+      </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -925,17 +972,17 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="3"/>
+      <c r="S14" s="2"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4"/>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -956,12 +1003,10 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -977,16 +1022,18 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="3"/>
+      <c r="S16" s="2"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1002,16 +1049,16 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="3"/>
+      <c r="S17" s="2"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1027,16 +1074,16 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="3"/>
+      <c r="S18" s="2"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1052,16 +1099,16 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="3"/>
+      <c r="S19" s="2"/>
       <c r="T19" s="4"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1077,16 +1124,16 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="3"/>
+      <c r="S20" s="2"/>
       <c r="T20" s="4"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -1102,16 +1149,16 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="3"/>
+      <c r="S21" s="2"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -1127,16 +1174,16 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="3"/>
+      <c r="S22" s="2"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
       <c r="W22" s="4"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1152,16 +1199,16 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="3"/>
+      <c r="S23" s="2"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
       <c r="W23" s="4"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="13"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1177,16 +1224,16 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="3"/>
+      <c r="S24" s="2"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
       <c r="V24" s="4"/>
       <c r="W24" s="4"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="13"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -1202,16 +1249,16 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="3"/>
+      <c r="S25" s="2"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
       <c r="V25" s="4"/>
       <c r="W25" s="4"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1227,16 +1274,16 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3"/>
+      <c r="S26" s="2"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="13"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1252,13 +1299,13 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="3"/>
+      <c r="S27" s="2"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
@@ -1277,18 +1324,16 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3"/>
+      <c r="S28" s="2"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1304,16 +1349,18 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3"/>
+      <c r="S29" s="2"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1329,53 +1376,43 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3"/>
+      <c r="S30" s="2"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="N31" s="4"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T31" s="15">
-        <v>1</v>
-      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="4"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1389,28 +1426,28 @@
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T32" s="15">
+      <c r="S32" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T32" s="7">
         <v>1</v>
       </c>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1424,76 +1461,96 @@
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T33" s="15">
+      <c r="S33" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T33" s="7">
         <v>1</v>
       </c>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4"/>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
+      <c r="K34" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L34" s="4"/>
       <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="N34" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="4"/>
+      <c r="S34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T34" s="7">
+        <v>1</v>
+      </c>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="4"/>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
+      <c r="N35" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="4"/>
+      <c r="S35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T35" s="7">
+        <v>1</v>
+      </c>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1509,16 +1566,16 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="3"/>
+      <c r="S36" s="2"/>
       <c r="T36" s="4"/>
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1534,16 +1591,16 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="3"/>
+      <c r="S37" s="2"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1559,16 +1616,16 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="3"/>
+      <c r="S38" s="2"/>
       <c r="T38" s="4"/>
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1584,16 +1641,16 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="3"/>
+      <c r="S39" s="2"/>
       <c r="T39" s="4"/>
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1609,13 +1666,13 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="3"/>
+      <c r="S40" s="2"/>
       <c r="T40" s="4"/>
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="12"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -1634,55 +1691,45 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="3"/>
+      <c r="S41" s="2"/>
       <c r="T41" s="4"/>
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="4" t="s">
-        <v>19</v>
-      </c>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T42" s="15">
-        <v>1</v>
-      </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="4"/>
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -1702,22 +1749,22 @@
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-      <c r="S43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T43" s="15">
+      <c r="S43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T43" s="7">
         <v>1</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -1737,70 +1784,90 @@
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
-      <c r="S44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T44" s="15">
+      <c r="S44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T44" s="7">
         <v>1</v>
       </c>
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="4"/>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
+      <c r="K45" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="N45" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="4"/>
+      <c r="S45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T45" s="7">
+        <v>1</v>
+      </c>
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="4"/>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
+      <c r="N46" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="4"/>
+      <c r="S46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T46" s="7">
+        <v>1</v>
+      </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -1816,16 +1883,16 @@
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="3"/>
+      <c r="S47" s="2"/>
       <c r="T47" s="4"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1841,15 +1908,16 @@
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
+      <c r="S48" s="2"/>
       <c r="T48" s="4"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1870,10 +1938,10 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -1894,10 +1962,10 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1918,10 +1986,10 @@
       <c r="V51" s="4"/>
       <c r="W51" s="4"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1942,10 +2010,10 @@
       <c r="V52" s="4"/>
       <c r="W52" s="4"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1966,7 +2034,7 @@
       <c r="V53" s="4"/>
       <c r="W53" s="4"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -1980,98 +2048,129 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="206">
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="T47:W47"/>
+  <mergeCells count="210">
+    <mergeCell ref="T54:W54"/>
     <mergeCell ref="T48:W48"/>
     <mergeCell ref="T49:W49"/>
     <mergeCell ref="T50:W50"/>
     <mergeCell ref="T51:W51"/>
     <mergeCell ref="T52:W52"/>
-    <mergeCell ref="N51:R51"/>
+    <mergeCell ref="T53:W53"/>
     <mergeCell ref="N52:R52"/>
     <mergeCell ref="N53:R53"/>
-    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="N54:R54"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N51:R51"/>
     <mergeCell ref="T41:W41"/>
     <mergeCell ref="T42:W42"/>
     <mergeCell ref="T43:W43"/>
     <mergeCell ref="T44:W44"/>
     <mergeCell ref="T45:W45"/>
     <mergeCell ref="T46:W46"/>
-    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="T47:W47"/>
     <mergeCell ref="N46:R46"/>
     <mergeCell ref="N47:R47"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
     <mergeCell ref="K50:M50"/>
     <mergeCell ref="K51:M51"/>
     <mergeCell ref="K52:M52"/>
     <mergeCell ref="K53:M53"/>
     <mergeCell ref="K54:M54"/>
-    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K55:M55"/>
     <mergeCell ref="D52:J52"/>
     <mergeCell ref="D53:J53"/>
     <mergeCell ref="D54:J54"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="D51:J51"/>
     <mergeCell ref="K46:M46"/>
     <mergeCell ref="K47:M47"/>
     <mergeCell ref="K48:M48"/>
-    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="K49:M49"/>
     <mergeCell ref="D46:J46"/>
     <mergeCell ref="D47:J47"/>
     <mergeCell ref="D48:J48"/>
     <mergeCell ref="D49:J49"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="A42:C54"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="A43:C55"/>
     <mergeCell ref="D13:J13"/>
     <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="D16:J16"/>
     <mergeCell ref="K13:M13"/>
     <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="K16:M16"/>
     <mergeCell ref="T38:W38"/>
     <mergeCell ref="T39:W39"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
     <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
     <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A4:C15"/>
-    <mergeCell ref="A16:C28"/>
-    <mergeCell ref="A29:C41"/>
+    <mergeCell ref="A4:C16"/>
+    <mergeCell ref="A17:C29"/>
+    <mergeCell ref="A30:C42"/>
     <mergeCell ref="N13:R13"/>
     <mergeCell ref="N14:R14"/>
-    <mergeCell ref="T31:W31"/>
     <mergeCell ref="T32:W32"/>
     <mergeCell ref="T33:W33"/>
     <mergeCell ref="T34:W34"/>
     <mergeCell ref="T35:W35"/>
     <mergeCell ref="T36:W36"/>
-    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="T37:W37"/>
     <mergeCell ref="T26:W26"/>
     <mergeCell ref="T27:W27"/>
     <mergeCell ref="T28:W28"/>
     <mergeCell ref="T29:W29"/>
     <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="T31:W31"/>
     <mergeCell ref="T20:W20"/>
     <mergeCell ref="T21:W21"/>
     <mergeCell ref="T22:W22"/>
     <mergeCell ref="T23:W23"/>
     <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="N36:R36"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="T25:W25"/>
     <mergeCell ref="T6:W6"/>
     <mergeCell ref="T7:W7"/>
     <mergeCell ref="T8:W8"/>
@@ -2079,102 +2178,98 @@
     <mergeCell ref="T10:W10"/>
     <mergeCell ref="T11:W11"/>
     <mergeCell ref="T12:W12"/>
-    <mergeCell ref="N30:R30"/>
     <mergeCell ref="N31:R31"/>
     <mergeCell ref="N32:R32"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N24:R24"/>
     <mergeCell ref="N25:R25"/>
     <mergeCell ref="N26:R26"/>
     <mergeCell ref="N27:R27"/>
     <mergeCell ref="N28:R28"/>
     <mergeCell ref="N29:R29"/>
-    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="N30:R30"/>
     <mergeCell ref="N19:R19"/>
     <mergeCell ref="N20:R20"/>
     <mergeCell ref="N21:R21"/>
     <mergeCell ref="N22:R22"/>
     <mergeCell ref="N23:R23"/>
+    <mergeCell ref="N24:R24"/>
     <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N16:R16"/>
     <mergeCell ref="N17:R17"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N18:R18"/>
     <mergeCell ref="N6:R6"/>
     <mergeCell ref="N7:R7"/>
     <mergeCell ref="N8:R8"/>
     <mergeCell ref="N9:R9"/>
     <mergeCell ref="N10:R10"/>
     <mergeCell ref="N11:R11"/>
-    <mergeCell ref="K30:M30"/>
     <mergeCell ref="K31:M31"/>
     <mergeCell ref="K32:M32"/>
     <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K24:M24"/>
     <mergeCell ref="K25:M25"/>
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="K27:M27"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K17:M17"/>
     <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K30:M30"/>
     <mergeCell ref="K19:M19"/>
     <mergeCell ref="K20:M20"/>
     <mergeCell ref="K21:M21"/>
     <mergeCell ref="K22:M22"/>
     <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D42:J42"/>
     <mergeCell ref="D38:J38"/>
     <mergeCell ref="D39:J39"/>
     <mergeCell ref="D40:J40"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D41:J41"/>
     <mergeCell ref="D32:J32"/>
     <mergeCell ref="D33:J33"/>
     <mergeCell ref="D34:J34"/>
     <mergeCell ref="D35:J35"/>
     <mergeCell ref="D36:J36"/>
-    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D37:J37"/>
     <mergeCell ref="D26:J26"/>
     <mergeCell ref="D27:J27"/>
     <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="T15:W15"/>
     <mergeCell ref="T4:W4"/>
     <mergeCell ref="K5:M5"/>
     <mergeCell ref="T5:W5"/>
@@ -2184,13 +2279,15 @@
     <mergeCell ref="D4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2200,7 +2297,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2212,7 +2309,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/checklist/CheckList.xlsx
+++ b/doc/checklist/CheckList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Percent complete</t>
   </si>
@@ -115,6 +115,24 @@
   </si>
   <si>
     <t>Suggest function to code</t>
+  </si>
+  <si>
+    <t>Require</t>
+  </si>
+  <si>
+    <t>Trần Hữu Phát</t>
+  </si>
+  <si>
+    <t>UI require / Other require</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>Demo code</t>
+  </si>
+  <si>
+    <t>Code Java  and XML in Android Studio</t>
   </si>
 </sst>
 </file>
@@ -257,22 +275,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -281,17 +296,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,52 +617,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18:R18"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
       <c r="S4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="T4" s="16" t="s">
+      <c r="T4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="11"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="13"/>
       <c r="D5" s="4" t="s">
         <v>28</v>
@@ -670,7 +688,7 @@
       <c r="S5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T5" s="5">
+      <c r="T5" s="7">
         <v>1</v>
       </c>
       <c r="U5" s="4"/>
@@ -678,8 +696,8 @@
       <c r="W5" s="4"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="7"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="4" t="s">
         <v>9</v>
@@ -705,8 +723,8 @@
       <c r="W6" s="4"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="13"/>
       <c r="D7" s="4" t="s">
         <v>10</v>
@@ -732,7 +750,7 @@
       <c r="S7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T7" s="5">
+      <c r="T7" s="7">
         <v>1</v>
       </c>
       <c r="U7" s="4"/>
@@ -740,8 +758,8 @@
       <c r="W7" s="4"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="13"/>
       <c r="D8" s="4" t="s">
         <v>11</v>
@@ -767,7 +785,7 @@
       <c r="S8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T8" s="5">
+      <c r="T8" s="7">
         <v>1</v>
       </c>
       <c r="U8" s="4"/>
@@ -775,8 +793,8 @@
       <c r="W8" s="4"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="13"/>
       <c r="D9" s="4" t="s">
         <v>12</v>
@@ -802,7 +820,7 @@
       <c r="S9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T9" s="5">
+      <c r="T9" s="7">
         <v>1</v>
       </c>
       <c r="U9" s="4"/>
@@ -810,8 +828,8 @@
       <c r="W9" s="4"/>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="13"/>
       <c r="D10" s="4" t="s">
         <v>13</v>
@@ -837,7 +855,7 @@
       <c r="S10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T10" s="5">
+      <c r="T10" s="7">
         <v>0.8</v>
       </c>
       <c r="U10" s="4"/>
@@ -845,8 +863,8 @@
       <c r="W10" s="4"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="13"/>
       <c r="D11" s="4" t="s">
         <v>14</v>
@@ -872,10 +890,10 @@
       <c r="W11" s="4"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="13"/>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="4"/>
@@ -901,33 +919,43 @@
       <c r="W12" s="4"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="13"/>
-      <c r="D13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="K13" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="N13" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="4"/>
+      <c r="S13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T13" s="7">
+        <v>1</v>
+      </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="13"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -951,10 +979,10 @@
       <c r="W14" s="4"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="13"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="6"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -976,8 +1004,8 @@
       <c r="W15" s="4"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="13"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -1001,11 +1029,11 @@
       <c r="W16" s="4"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="11"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1028,8 +1056,8 @@
       <c r="W17" s="4"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="13"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -1053,8 +1081,8 @@
       <c r="W18" s="4"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="7"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="13"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1078,8 +1106,8 @@
       <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="7"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="13"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1103,8 +1131,8 @@
       <c r="W20" s="4"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="7"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="13"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1128,8 +1156,8 @@
       <c r="W21" s="4"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="7"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="13"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1153,8 +1181,8 @@
       <c r="W22" s="4"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="7"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="13"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1178,8 +1206,8 @@
       <c r="W23" s="4"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="13"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -1203,8 +1231,8 @@
       <c r="W24" s="4"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="7"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="13"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1228,8 +1256,8 @@
       <c r="W25" s="4"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="7"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="13"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1253,8 +1281,8 @@
       <c r="W26" s="4"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="7"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="13"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1278,8 +1306,8 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="7"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="13"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -1304,8 +1332,8 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="16"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1328,11 +1356,11 @@
       <c r="W29" s="4"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -1355,9 +1383,9 @@
       <c r="W30" s="4"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1380,9 +1408,9 @@
       <c r="W31" s="4"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
       <c r="D32" s="4" t="s">
         <v>17</v>
       </c>
@@ -1407,7 +1435,7 @@
       <c r="S32" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T32" s="5">
+      <c r="T32" s="7">
         <v>1</v>
       </c>
       <c r="U32" s="4"/>
@@ -1415,9 +1443,9 @@
       <c r="W32" s="4"/>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
       <c r="D33" s="4" t="s">
         <v>18</v>
       </c>
@@ -1442,7 +1470,7 @@
       <c r="S33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T33" s="5">
+      <c r="T33" s="7">
         <v>1</v>
       </c>
       <c r="U33" s="4"/>
@@ -1450,9 +1478,9 @@
       <c r="W33" s="4"/>
     </row>
     <row r="34" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
       <c r="D34" s="4" t="s">
         <v>16</v>
       </c>
@@ -1477,7 +1505,7 @@
       <c r="S34" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T34" s="5">
+      <c r="T34" s="7">
         <v>1</v>
       </c>
       <c r="U34" s="4"/>
@@ -1485,34 +1513,44 @@
       <c r="W34" s="4"/>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="4"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
+      <c r="K35" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="L35" s="4"/>
       <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
+      <c r="N35" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="O35" s="4"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="4"/>
+      <c r="S35" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T35" s="7">
+        <v>1</v>
+      </c>
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
     <row r="36" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -1535,9 +1573,9 @@
       <c r="W36" s="4"/>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -1560,9 +1598,9 @@
       <c r="W37" s="4"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1585,9 +1623,9 @@
       <c r="W38" s="4"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -1610,9 +1648,9 @@
       <c r="W39" s="4"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -1635,9 +1673,9 @@
       <c r="W40" s="4"/>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -1660,9 +1698,9 @@
       <c r="W41" s="4"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1685,11 +1723,11 @@
       <c r="W42" s="4"/>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="4" t="s">
         <v>19</v>
       </c>
@@ -1714,7 +1752,7 @@
       <c r="S43" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T43" s="5">
+      <c r="T43" s="7">
         <v>1</v>
       </c>
       <c r="U43" s="4"/>
@@ -1722,9 +1760,9 @@
       <c r="W43" s="4"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
       <c r="D44" s="4" t="s">
         <v>20</v>
       </c>
@@ -1749,7 +1787,7 @@
       <c r="S44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T44" s="5">
+      <c r="T44" s="7">
         <v>1</v>
       </c>
       <c r="U44" s="4"/>
@@ -1757,9 +1795,9 @@
       <c r="W44" s="4"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
       <c r="D45" s="4" t="s">
         <v>21</v>
       </c>
@@ -1784,7 +1822,7 @@
       <c r="S45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="T45" s="5">
+      <c r="T45" s="7">
         <v>1</v>
       </c>
       <c r="U45" s="4"/>
@@ -1792,34 +1830,44 @@
       <c r="W45" s="4"/>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="4"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
+      <c r="K46" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
+      <c r="N46" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="4"/>
+      <c r="S46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T46" s="7">
+        <v>1</v>
+      </c>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -1842,9 +1890,9 @@
       <c r="W47" s="4"/>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="12"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -1867,9 +1915,9 @@
       <c r="W48" s="4"/>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -1891,9 +1939,9 @@
       <c r="W49" s="4"/>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -1915,9 +1963,9 @@
       <c r="W50" s="4"/>
     </row>
     <row r="51" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="12"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1939,9 +1987,9 @@
       <c r="W51" s="4"/>
     </row>
     <row r="52" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="7"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
+      <c r="C52" s="12"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -1963,9 +2011,9 @@
       <c r="W52" s="4"/>
     </row>
     <row r="53" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="12"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -1987,9 +2035,9 @@
       <c r="W53" s="4"/>
     </row>
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="12"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -2011,9 +2059,9 @@
       <c r="W54" s="4"/>
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
-      <c r="B55" s="8"/>
-      <c r="C55" s="8"/>
+      <c r="A55" s="15"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -2027,94 +2075,102 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="D9:J9"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="N4:R4"/>
-    <mergeCell ref="N5:R5"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="D5:J5"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="D8:J8"/>
-    <mergeCell ref="D22:J22"/>
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="D24:J24"/>
-    <mergeCell ref="D25:J25"/>
-    <mergeCell ref="D43:J43"/>
-    <mergeCell ref="D44:J44"/>
-    <mergeCell ref="D45:J45"/>
-    <mergeCell ref="D17:J17"/>
-    <mergeCell ref="D18:J18"/>
-    <mergeCell ref="D19:J19"/>
-    <mergeCell ref="D42:J42"/>
-    <mergeCell ref="D38:J38"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="D40:J40"/>
-    <mergeCell ref="D41:J41"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="D32:J32"/>
-    <mergeCell ref="D33:J33"/>
-    <mergeCell ref="D34:J34"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="D36:J36"/>
-    <mergeCell ref="D37:J37"/>
-    <mergeCell ref="D26:J26"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="D30:J30"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="D20:J20"/>
-    <mergeCell ref="D21:J21"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="N41:R41"/>
-    <mergeCell ref="N42:R42"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N6:R6"/>
-    <mergeCell ref="N7:R7"/>
-    <mergeCell ref="N8:R8"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="N52:R52"/>
+    <mergeCell ref="N53:R53"/>
+    <mergeCell ref="N54:R54"/>
+    <mergeCell ref="N48:R48"/>
+    <mergeCell ref="N49:R49"/>
+    <mergeCell ref="N50:R50"/>
+    <mergeCell ref="N51:R51"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="N46:R46"/>
+    <mergeCell ref="N47:R47"/>
+    <mergeCell ref="N43:R43"/>
+    <mergeCell ref="N44:R44"/>
+    <mergeCell ref="N45:R45"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="D46:J46"/>
+    <mergeCell ref="D47:J47"/>
+    <mergeCell ref="D48:J48"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="A43:C55"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="D14:J14"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="N40:R40"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="N37:R37"/>
+    <mergeCell ref="N38:R38"/>
+    <mergeCell ref="N39:R39"/>
+    <mergeCell ref="N33:R33"/>
+    <mergeCell ref="N34:R34"/>
+    <mergeCell ref="N35:R35"/>
+    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="A4:C16"/>
+    <mergeCell ref="A17:C29"/>
+    <mergeCell ref="A30:C42"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="T25:W25"/>
     <mergeCell ref="T6:W6"/>
     <mergeCell ref="T7:W7"/>
     <mergeCell ref="T8:W8"/>
@@ -2139,104 +2195,96 @@
     <mergeCell ref="N12:R12"/>
     <mergeCell ref="N17:R17"/>
     <mergeCell ref="N18:R18"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="A4:C16"/>
-    <mergeCell ref="A17:C29"/>
-    <mergeCell ref="A30:C42"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="A43:C55"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="D14:J14"/>
-    <mergeCell ref="D16:J16"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="N40:R40"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="N37:R37"/>
-    <mergeCell ref="N38:R38"/>
-    <mergeCell ref="N39:R39"/>
-    <mergeCell ref="N33:R33"/>
-    <mergeCell ref="N34:R34"/>
-    <mergeCell ref="N35:R35"/>
-    <mergeCell ref="N36:R36"/>
+    <mergeCell ref="N6:R6"/>
+    <mergeCell ref="N7:R7"/>
+    <mergeCell ref="N8:R8"/>
+    <mergeCell ref="N9:R9"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="N41:R41"/>
+    <mergeCell ref="N42:R42"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="K36:M36"/>
     <mergeCell ref="K41:M41"/>
     <mergeCell ref="K42:M42"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="D46:J46"/>
-    <mergeCell ref="D47:J47"/>
-    <mergeCell ref="D48:J48"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="N46:R46"/>
-    <mergeCell ref="N47:R47"/>
-    <mergeCell ref="N43:R43"/>
-    <mergeCell ref="N44:R44"/>
-    <mergeCell ref="N45:R45"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="T50:W50"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="N52:R52"/>
-    <mergeCell ref="N53:R53"/>
-    <mergeCell ref="N54:R54"/>
-    <mergeCell ref="N48:R48"/>
-    <mergeCell ref="N49:R49"/>
-    <mergeCell ref="N50:R50"/>
-    <mergeCell ref="N51:R51"/>
+    <mergeCell ref="D29:J29"/>
+    <mergeCell ref="D30:J30"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="D20:J20"/>
+    <mergeCell ref="D21:J21"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="D22:J22"/>
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="D24:J24"/>
+    <mergeCell ref="D25:J25"/>
+    <mergeCell ref="D43:J43"/>
+    <mergeCell ref="D44:J44"/>
+    <mergeCell ref="D45:J45"/>
+    <mergeCell ref="D17:J17"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="D19:J19"/>
+    <mergeCell ref="D42:J42"/>
+    <mergeCell ref="D38:J38"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="D40:J40"/>
+    <mergeCell ref="D41:J41"/>
+    <mergeCell ref="D32:J32"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="D34:J34"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="D36:J36"/>
+    <mergeCell ref="D37:J37"/>
+    <mergeCell ref="D26:J26"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="D9:J9"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="N4:R4"/>
+    <mergeCell ref="N5:R5"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="D5:J5"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="D8:J8"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
